--- a/BFD05D.xlsx
+++ b/BFD05D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="724">
   <si>
     <t/>
   </si>
@@ -79,69 +79,63 @@
     <t>6</t>
   </si>
   <si>
-    <t>10015814</t>
-  </si>
-  <si>
-    <t>LA FONTE MC.ELBOW225</t>
+    <t>10016520</t>
+  </si>
+  <si>
+    <t>PAZTO MAKARN KEJU 63</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20039011</t>
+  </si>
+  <si>
+    <t>MMSUKA S.KRM AYM 55G</t>
+  </si>
+  <si>
+    <t>20137017</t>
+  </si>
+  <si>
+    <t>DLMONTE CRBNARA 180G</t>
+  </si>
+  <si>
+    <t>20039621</t>
+  </si>
+  <si>
+    <t>PRONAS SC BOLG SP315</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20066050</t>
+  </si>
+  <si>
+    <t>DELMONTE SPG.SAUS250</t>
+  </si>
+  <si>
+    <t>20066052</t>
+  </si>
+  <si>
+    <t>DLMONTE BBQ.SAUS 250</t>
+  </si>
+  <si>
+    <t>20024512</t>
+  </si>
+  <si>
+    <t>L/F PASTA BOLOGNS315</t>
+  </si>
+  <si>
+    <t>20099549</t>
+  </si>
+  <si>
+    <t>L/F SS CHK.BOLGN 290</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>10016520</t>
-  </si>
-  <si>
-    <t>PAZTO MAKARN KEJU 63</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>20039011</t>
-  </si>
-  <si>
-    <t>MMSUKA S.KRM AYM 55G</t>
-  </si>
-  <si>
-    <t>20137017</t>
-  </si>
-  <si>
-    <t>DLMONTE CRBNARA 180G</t>
-  </si>
-  <si>
-    <t>20039621</t>
-  </si>
-  <si>
-    <t>PRONAS SC BOLG SP315</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20066050</t>
-  </si>
-  <si>
-    <t>DELMONTE SPG.SAUS250</t>
-  </si>
-  <si>
-    <t>20066052</t>
-  </si>
-  <si>
-    <t>DLMONTE BBQ.SAUS 250</t>
-  </si>
-  <si>
-    <t>20024512</t>
-  </si>
-  <si>
-    <t>L/F PASTA BOLOGNS315</t>
-  </si>
-  <si>
-    <t>20099549</t>
-  </si>
-  <si>
-    <t>L/F SS CHK.BOLGN 290</t>
-  </si>
-  <si>
     <t>20137815</t>
   </si>
   <si>
@@ -259,6 +253,18 @@
     <t>SASA TPNG BKWAN 225G</t>
   </si>
   <si>
+    <t>20025701</t>
+  </si>
+  <si>
+    <t>DOLPIN GARAM BTL 200</t>
+  </si>
+  <si>
+    <t>20140350</t>
+  </si>
+  <si>
+    <t>LARISST BMB MASAK 90</t>
+  </si>
+  <si>
     <t>20045204</t>
   </si>
   <si>
@@ -307,19 +313,25 @@
     <t>REFINA GARAM 500GR</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>20139346</t>
   </si>
   <si>
     <t>LARISST GRM KASAR500</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>20036713</t>
   </si>
   <si>
     <t>IDM CUKA BTL150ML</t>
   </si>
   <si>
-    <t>9</t>
+    <t>11</t>
   </si>
   <si>
     <t>20005008</t>
@@ -334,22 +346,76 @@
     <t>PRONAS NS GRG SP 110</t>
   </si>
   <si>
+    <t>10013823</t>
+  </si>
+  <si>
+    <t>A/SAJIKU BB.AYM GR24</t>
+  </si>
+  <si>
+    <t>10035898</t>
+  </si>
+  <si>
+    <t>A/MASAKO AYAM 100GR</t>
+  </si>
+  <si>
+    <t>20057290</t>
+  </si>
+  <si>
+    <t>SASA BU AYAM KNG 25G</t>
+  </si>
+  <si>
+    <t>20098663</t>
+  </si>
+  <si>
+    <t>TOTOLE KLD JMUR 40G</t>
+  </si>
+  <si>
+    <t>20134777</t>
+  </si>
+  <si>
+    <t>SASA KARI JPG ORI 40</t>
+  </si>
+  <si>
+    <t>20134778</t>
+  </si>
+  <si>
+    <t>SASA KARI JPG PDS 40</t>
+  </si>
+  <si>
+    <t>20136577</t>
+  </si>
+  <si>
+    <t>TUDUNG BMB PRLDK 50G</t>
+  </si>
+  <si>
     <t>10035899</t>
   </si>
   <si>
     <t>A/MASAKO SAPI 100GR</t>
   </si>
   <si>
+    <t>20025563</t>
+  </si>
+  <si>
+    <t>SASA BMB LUMUR AYM26</t>
+  </si>
+  <si>
     <t>20059859</t>
   </si>
   <si>
     <t>KOBE BMB N/GRG PDS20</t>
   </si>
   <si>
-    <t>20134777</t>
-  </si>
-  <si>
-    <t>SASA KARI JPG ORI 40</t>
+    <t>20103449</t>
+  </si>
+  <si>
+    <t>SAJIKU NSI GRG SPL20</t>
+  </si>
+  <si>
+    <t>20104719</t>
+  </si>
+  <si>
+    <t>TOTOLE KLD JMUR 80G</t>
   </si>
   <si>
     <t>20136743</t>
@@ -358,16 +424,10 @@
     <t>TDUNG BMB NP.RDNG 27</t>
   </si>
   <si>
-    <t>10035898</t>
-  </si>
-  <si>
-    <t>A/MASAKO AYAM 100GR</t>
-  </si>
-  <si>
-    <t>20025563</t>
-  </si>
-  <si>
-    <t>SASA BMB LUMUR AYM26</t>
+    <t>20138072</t>
+  </si>
+  <si>
+    <t>RASA/M OPOR AYAM 40G</t>
   </si>
   <si>
     <t>20134507</t>
@@ -376,22 +436,10 @@
     <t>TUDUNG BMB NS UDUK27</t>
   </si>
   <si>
-    <t>20134778</t>
-  </si>
-  <si>
-    <t>SASA KARI JPG PDS 40</t>
-  </si>
-  <si>
-    <t>20057290</t>
-  </si>
-  <si>
-    <t>SASA BU AYAM KNG 25G</t>
-  </si>
-  <si>
-    <t>20134250</t>
-  </si>
-  <si>
-    <t>AJ/MASAKO JAMUR 40G</t>
+    <t>20135316</t>
+  </si>
+  <si>
+    <t>LARISST BMB JMR 40G</t>
   </si>
   <si>
     <t>20136397</t>
@@ -400,10 +448,22 @@
     <t>KB BMB AYM LNGKS 80G</t>
   </si>
   <si>
-    <t>20136577</t>
-  </si>
-  <si>
-    <t>TUDUNG BMB PRLDK 50G</t>
+    <t>20137258</t>
+  </si>
+  <si>
+    <t>RASA/M GULAI AYAM40G</t>
+  </si>
+  <si>
+    <t>20138371</t>
+  </si>
+  <si>
+    <t>MAGGI MAGIC LZT 80G</t>
+  </si>
+  <si>
+    <t>10007775</t>
+  </si>
+  <si>
+    <t>A/SAJIKU NASI G.AY20</t>
   </si>
   <si>
     <t>10013821</t>
@@ -412,595 +472,646 @@
     <t>A/SAJIKU NASI G.PD20</t>
   </si>
   <si>
-    <t>10040154</t>
-  </si>
-  <si>
-    <t>INDOFOOD BK JG.BKR25</t>
-  </si>
-  <si>
-    <t>20104719</t>
-  </si>
-  <si>
-    <t>TOTOLE KLD JMUR 80G</t>
-  </si>
-  <si>
-    <t>20128380</t>
-  </si>
-  <si>
-    <t>A/MASAKO G.PAS AYM50</t>
-  </si>
-  <si>
-    <t>10013823</t>
-  </si>
-  <si>
-    <t>A/SAJIKU BB.AYM GR24</t>
-  </si>
-  <si>
-    <t>10030784</t>
-  </si>
-  <si>
-    <t>MASAKO SAPI 6X8.5G</t>
+    <t>20038548</t>
+  </si>
+  <si>
+    <t>MASAKO SAPI 250GR</t>
+  </si>
+  <si>
+    <t>20038549</t>
+  </si>
+  <si>
+    <t>A/MASAKO AYAM 250GR</t>
+  </si>
+  <si>
+    <t>20138843</t>
+  </si>
+  <si>
+    <t>R/MASA SYR LODEH 25G</t>
+  </si>
+  <si>
+    <t>10006884</t>
+  </si>
+  <si>
+    <t>ABC MINYAK WIJEN.195</t>
+  </si>
+  <si>
+    <t>20031771</t>
+  </si>
+  <si>
+    <t>LKK PURE SSME OIL115</t>
+  </si>
+  <si>
+    <t>20085784</t>
+  </si>
+  <si>
+    <t>LKK OYSTER SAUCE 145</t>
+  </si>
+  <si>
+    <t>10036703</t>
+  </si>
+  <si>
+    <t>INDOFOOD KCP ASIN140</t>
+  </si>
+  <si>
+    <t>10000324</t>
+  </si>
+  <si>
+    <t>ABC KECAP ASIN 131ML</t>
+  </si>
+  <si>
+    <t>20009966</t>
+  </si>
+  <si>
+    <t>SAORI SAUS TIRAM 133</t>
+  </si>
+  <si>
+    <t>20009973</t>
+  </si>
+  <si>
+    <t>SAORI SAUS TERIYK135</t>
+  </si>
+  <si>
+    <t>20103453</t>
+  </si>
+  <si>
+    <t>SAORI SAUS LD HTM133</t>
+  </si>
+  <si>
+    <t>20129757</t>
+  </si>
+  <si>
+    <t>SAORI SS BULGOGI 133</t>
+  </si>
+  <si>
+    <t>20044599</t>
+  </si>
+  <si>
+    <t>SAORI SAUS TIRAM 270</t>
+  </si>
+  <si>
+    <t>20038236</t>
+  </si>
+  <si>
+    <t>ABC SAUS TIRAM 135</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20071507</t>
+  </si>
+  <si>
+    <t>MAGGI SAUS TIRAM 150</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20117166</t>
+  </si>
+  <si>
+    <t>MAESTRO SS TIRAM 270</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20098776</t>
+  </si>
+  <si>
+    <t>MS SS.TIRAM UDG&amp;J260</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20015850</t>
+  </si>
+  <si>
+    <t>INDOFOOD SBL PDS 275</t>
+  </si>
+  <si>
+    <t>20027097</t>
+  </si>
+  <si>
+    <t>INDOFOOD SMBL EXT275</t>
+  </si>
+  <si>
+    <t>20115489</t>
+  </si>
+  <si>
+    <t>INDOFOOD SMB DHSY275</t>
+  </si>
+  <si>
+    <t>20027096</t>
+  </si>
+  <si>
+    <t>INDOFOOD SAUS TMT275</t>
+  </si>
+  <si>
+    <t>20064412</t>
+  </si>
+  <si>
+    <t>ABC SAMBAL ASLI 270</t>
+  </si>
+  <si>
+    <t>20063027</t>
+  </si>
+  <si>
+    <t>ABC SMBL EXT.PDS 270</t>
+  </si>
+  <si>
+    <t>20132492</t>
+  </si>
+  <si>
+    <t>ABC SBL EXTRM PDS270</t>
+  </si>
+  <si>
+    <t>10000116</t>
+  </si>
+  <si>
+    <t>ABC SAMBAL BTL 335ML</t>
+  </si>
+  <si>
+    <t>10003362</t>
+  </si>
+  <si>
+    <t>ABC SBL.EXT PEDAS335</t>
+  </si>
+  <si>
+    <t>10013041</t>
+  </si>
+  <si>
+    <t>INDO/F SAMBAL E/P335</t>
+  </si>
+  <si>
+    <t>10012917</t>
+  </si>
+  <si>
+    <t>INDO/F SMBAL BGK 335</t>
+  </si>
+  <si>
+    <t>20036241</t>
+  </si>
+  <si>
+    <t>2BLIBIS SAUS CABE335</t>
+  </si>
+  <si>
+    <t>10004367</t>
+  </si>
+  <si>
+    <t>SASA SAMBAL ASLI 135</t>
+  </si>
+  <si>
+    <t>20036344</t>
+  </si>
+  <si>
+    <t>2BLIBIS SAUS CABE135</t>
+  </si>
+  <si>
+    <t>10000212</t>
+  </si>
+  <si>
+    <t>ABC SAMBAL 130ML</t>
+  </si>
+  <si>
+    <t>10036708</t>
+  </si>
+  <si>
+    <t>ABC SBL.EXT PEDAS130</t>
+  </si>
+  <si>
+    <t>10000320</t>
+  </si>
+  <si>
+    <t>ABC SAUCE TOMAT130ML</t>
+  </si>
+  <si>
+    <t>20115632</t>
+  </si>
+  <si>
+    <t>INDOFOOD SMB DHSY135</t>
+  </si>
+  <si>
+    <t>20010272</t>
+  </si>
+  <si>
+    <t>INDOFOOD SMB EXT 135</t>
+  </si>
+  <si>
+    <t>10002989</t>
+  </si>
+  <si>
+    <t>INDOFOOD SBL PDS 135</t>
+  </si>
+  <si>
+    <t>20009269</t>
+  </si>
+  <si>
+    <t>DELMONTE EXT.HOT 135</t>
+  </si>
+  <si>
+    <t>20036194</t>
+  </si>
+  <si>
+    <t>DELMONTE KETCHUP 135</t>
+  </si>
+  <si>
+    <t>20091863</t>
+  </si>
+  <si>
+    <t>MMSUKA HOT LAVA 130</t>
+  </si>
+  <si>
+    <t>20091864</t>
+  </si>
+  <si>
+    <t>MMSUKA HOT LAVA 260</t>
+  </si>
+  <si>
+    <t>20132660</t>
+  </si>
+  <si>
+    <t>2 BELIBIS SAUS 235ML</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20082351</t>
+  </si>
+  <si>
+    <t>DELM.SAOS TOMATO 265</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>10027529</t>
+  </si>
+  <si>
+    <t>DELMONTE EXT.HOT 265</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20139356</t>
+  </si>
+  <si>
+    <t>ABC BMBU KCG 180G</t>
+  </si>
+  <si>
+    <t>20034315</t>
+  </si>
+  <si>
+    <t>ABC SMBAL TERASI 180</t>
+  </si>
+  <si>
+    <t>20043799</t>
+  </si>
+  <si>
+    <t>ABC SMBL EXT PDS 380</t>
+  </si>
+  <si>
+    <t>20104152</t>
+  </si>
+  <si>
+    <t>DELMONTE EXT.HOT 200</t>
+  </si>
+  <si>
+    <t>20009270</t>
+  </si>
+  <si>
+    <t>DELMONTE KTCHUP 24'S</t>
+  </si>
+  <si>
+    <t>20009268</t>
+  </si>
+  <si>
+    <t>DELMONTE SAMBL 24X8</t>
+  </si>
+  <si>
+    <t>20135428</t>
+  </si>
+  <si>
+    <t>KOBE BMB RNDANG 3X20</t>
+  </si>
+  <si>
+    <t>10031438</t>
+  </si>
+  <si>
+    <t>SASA SMB X.HOT 24X8G</t>
+  </si>
+  <si>
+    <t>20036865</t>
+  </si>
+  <si>
+    <t>ABC SMAL TERASI 10'S</t>
+  </si>
+  <si>
+    <t>20054028</t>
+  </si>
+  <si>
+    <t>INDO/F SMBL BLDO 200</t>
+  </si>
+  <si>
+    <t>20048582</t>
+  </si>
+  <si>
+    <t>FINNA SMBL/T ULG 10S</t>
+  </si>
+  <si>
+    <t>20012187</t>
+  </si>
+  <si>
+    <t>INDOFOOD SBL PDS 24S</t>
+  </si>
+  <si>
+    <t>20133690</t>
+  </si>
+  <si>
+    <t>SEDAAP KALDU AYAM250</t>
+  </si>
+  <si>
+    <t>20133691</t>
+  </si>
+  <si>
+    <t>SEDAAP KALDU SAPI250</t>
+  </si>
+  <si>
+    <t>20129197</t>
+  </si>
+  <si>
+    <t>KOBE BMB NS UDK 3X15</t>
+  </si>
+  <si>
+    <t>20135466</t>
+  </si>
+  <si>
+    <t>KOBE BMB NS KNNG3X15</t>
+  </si>
+  <si>
+    <t>20128243</t>
+  </si>
+  <si>
+    <t>M/S GIM BORI PDS 25G</t>
+  </si>
+  <si>
+    <t>20128242</t>
+  </si>
+  <si>
+    <t>M/S GIM BORI ORG 25G</t>
+  </si>
+  <si>
+    <t>20042089</t>
+  </si>
+  <si>
+    <t>KOBE BONCABE ORG 45G</t>
+  </si>
+  <si>
+    <t>20074334</t>
+  </si>
+  <si>
+    <t>KOBE BONCABE L30 40G</t>
+  </si>
+  <si>
+    <t>20047809</t>
+  </si>
+  <si>
+    <t>KOBE BONCABE L15 45G</t>
+  </si>
+  <si>
+    <t>20117663</t>
+  </si>
+  <si>
+    <t>BONCABE LV50 MAX 30G</t>
+  </si>
+  <si>
+    <t>20115355</t>
+  </si>
+  <si>
+    <t>BONCABE NORI LVL 2</t>
+  </si>
+  <si>
+    <t>20056800</t>
+  </si>
+  <si>
+    <t>LADAKU MRC BBK BTL35</t>
+  </si>
+  <si>
+    <t>10036773</t>
+  </si>
+  <si>
+    <t>KUPU2 LADA PTH BBK85</t>
+  </si>
+  <si>
+    <t>10036774</t>
+  </si>
+  <si>
+    <t>KUPU2 LADA HTM BBK83</t>
+  </si>
+  <si>
+    <t>20134371</t>
+  </si>
+  <si>
+    <t>IDM CABE MRH BBK 50G</t>
+  </si>
+  <si>
+    <t>20134372</t>
+  </si>
+  <si>
+    <t>IDM BWG PTIH BBK 60G</t>
+  </si>
+  <si>
+    <t>20134248</t>
+  </si>
+  <si>
+    <t>IDM KETUMBAR BBK 50G</t>
+  </si>
+  <si>
+    <t>20134247</t>
+  </si>
+  <si>
+    <t>IDM LADA PTH BBK 50G</t>
+  </si>
+  <si>
+    <t>20134249</t>
+  </si>
+  <si>
+    <t>IDM KUNYIT BBK 50G</t>
+  </si>
+  <si>
+    <t>10027389</t>
+  </si>
+  <si>
+    <t>INDOFOOD KLD.AYM 100</t>
+  </si>
+  <si>
+    <t>10002765</t>
+  </si>
+  <si>
+    <t>INDOFOOD RENDANG 50G</t>
+  </si>
+  <si>
+    <t>10005820</t>
+  </si>
+  <si>
+    <t>ROYCO KALDU AYAM 94G</t>
+  </si>
+  <si>
+    <t>RT,(E-0.5B)</t>
+  </si>
+  <si>
+    <t>20013341</t>
+  </si>
+  <si>
+    <t>BAMBOE RENDANG 35G</t>
+  </si>
+  <si>
+    <t>20013345</t>
+  </si>
+  <si>
+    <t>BAMBOE NASI GRG 40G</t>
+  </si>
+  <si>
+    <t>20036783</t>
+  </si>
+  <si>
+    <t>INDOFD RCK IKN GRG20</t>
+  </si>
+  <si>
+    <t>20139390</t>
+  </si>
+  <si>
+    <t>INDO RACIK BALADO 55</t>
+  </si>
+  <si>
+    <t>20139801</t>
+  </si>
+  <si>
+    <t>ROYCO RENDANG 45G</t>
+  </si>
+  <si>
+    <t>10002767</t>
+  </si>
+  <si>
+    <t>INDOFOOD GULAI 45G</t>
+  </si>
+  <si>
+    <t>10002768</t>
+  </si>
+  <si>
+    <t>INDOFOOD OPOR AYM 45</t>
+  </si>
+  <si>
+    <t>10040150</t>
+  </si>
+  <si>
+    <t>INDOF/TBR BK BBQ 25G</t>
+  </si>
+  <si>
+    <t>20014281</t>
+  </si>
+  <si>
+    <t>INDOF RACIK AYM.GR26</t>
+  </si>
+  <si>
+    <t>20021359</t>
+  </si>
+  <si>
+    <t>BAMBOE SOTO MADURA40</t>
+  </si>
+  <si>
+    <t>20084470</t>
+  </si>
+  <si>
+    <t>ROYCO KALDU SAPI 220</t>
+  </si>
+  <si>
+    <t>20133255</t>
+  </si>
+  <si>
+    <t>INDOFOOD AYM MNTGA50</t>
+  </si>
+  <si>
+    <t>20139784</t>
+  </si>
+  <si>
+    <t>ROYCO SOTO AYAM 40G</t>
+  </si>
+  <si>
+    <t>10002915</t>
+  </si>
+  <si>
+    <t>INDOFOOD SOTO AYM45G</t>
+  </si>
+  <si>
+    <t>10036780</t>
+  </si>
+  <si>
+    <t>INDOFOOD KARE 45G</t>
   </si>
   <si>
     <t>10040157</t>
   </si>
   <si>
-    <t>INDOFOOD BK KEJU 25G</t>
-  </si>
-  <si>
-    <t>20098663</t>
-  </si>
-  <si>
-    <t>TOTOLE KLD JMUR 40G</t>
-  </si>
-  <si>
-    <t>10040150</t>
-  </si>
-  <si>
-    <t>INDOFOOD BK BBQ 25G</t>
-  </si>
-  <si>
-    <t>20135316</t>
-  </si>
-  <si>
-    <t>LARISST BMB JMR 40G</t>
-  </si>
-  <si>
-    <t>20138072</t>
-  </si>
-  <si>
-    <t>RASA/M OPOR AYAM 40G</t>
-  </si>
-  <si>
-    <t>20038549</t>
-  </si>
-  <si>
-    <t>A/MASAKO AYAM 250GR</t>
-  </si>
-  <si>
-    <t>20103449</t>
-  </si>
-  <si>
-    <t>SAJIKU NSI GRG SPL20</t>
-  </si>
-  <si>
-    <t>20137258</t>
-  </si>
-  <si>
-    <t>RASA/M GULAI AYAM40G</t>
-  </si>
-  <si>
-    <t>20138371</t>
-  </si>
-  <si>
-    <t>MAGGI MAGIC LZT 80G</t>
-  </si>
-  <si>
-    <t>10007775</t>
-  </si>
-  <si>
-    <t>A/SAJIKU NASI G.AY20</t>
-  </si>
-  <si>
-    <t>20038548</t>
-  </si>
-  <si>
-    <t>MASAKO SAPI 250GR</t>
-  </si>
-  <si>
-    <t>20138843</t>
-  </si>
-  <si>
-    <t>R/MASA SYR LODEH 25G</t>
-  </si>
-  <si>
-    <t>10006884</t>
-  </si>
-  <si>
-    <t>ABC MINYAK WIJEN.195</t>
-  </si>
-  <si>
-    <t>20031771</t>
-  </si>
-  <si>
-    <t>LKK PURE SSME OIL115</t>
-  </si>
-  <si>
-    <t>20085784</t>
-  </si>
-  <si>
-    <t>LKK OYSTER SAUCE 145</t>
-  </si>
-  <si>
-    <t>10036703</t>
-  </si>
-  <si>
-    <t>INDOFOOD KCP ASIN140</t>
-  </si>
-  <si>
-    <t>10000324</t>
-  </si>
-  <si>
-    <t>ABC KECAP ASIN 131ML</t>
-  </si>
-  <si>
-    <t>20009966</t>
-  </si>
-  <si>
-    <t>SAORI SAUS TIRAM 133</t>
-  </si>
-  <si>
-    <t>20009973</t>
-  </si>
-  <si>
-    <t>SAORI SAUS TERIYK135</t>
-  </si>
-  <si>
-    <t>20103453</t>
-  </si>
-  <si>
-    <t>SAORI SAUS LD HTM133</t>
-  </si>
-  <si>
-    <t>20129757</t>
-  </si>
-  <si>
-    <t>SAORI SS BULGOGI 133</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20044599</t>
-  </si>
-  <si>
-    <t>SAORI SAUS TIRAM 270</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>20038236</t>
-  </si>
-  <si>
-    <t>ABC SAUS TIRAM 135</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20071507</t>
-  </si>
-  <si>
-    <t>MAGGI SAUS TIRAM 150</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20117166</t>
-  </si>
-  <si>
-    <t>MAESTRO SS TIRAM 270</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>20098776</t>
-  </si>
-  <si>
-    <t>MS SS.TIRAM UDG&amp;J260</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20015850</t>
-  </si>
-  <si>
-    <t>INDOFOOD SBL PDS 275</t>
-  </si>
-  <si>
-    <t>20027097</t>
-  </si>
-  <si>
-    <t>INDOFOOD SMBL EXT275</t>
-  </si>
-  <si>
-    <t>20115489</t>
-  </si>
-  <si>
-    <t>INDOFOOD SMB DHSY275</t>
-  </si>
-  <si>
-    <t>20027096</t>
-  </si>
-  <si>
-    <t>INDOFOOD SAUS TMT275</t>
-  </si>
-  <si>
-    <t>20064412</t>
-  </si>
-  <si>
-    <t>ABC SAMBAL ASLI 270</t>
-  </si>
-  <si>
-    <t>20063027</t>
-  </si>
-  <si>
-    <t>ABC SMBL EXT.PDS 270</t>
-  </si>
-  <si>
-    <t>20132492</t>
-  </si>
-  <si>
-    <t>ABC SBL EXTRM PDS270</t>
-  </si>
-  <si>
-    <t>10000116</t>
-  </si>
-  <si>
-    <t>ABC SAMBAL BTL 335ML</t>
-  </si>
-  <si>
-    <t>10003362</t>
-  </si>
-  <si>
-    <t>ABC SBL.EXT PEDAS335</t>
-  </si>
-  <si>
-    <t>10013041</t>
-  </si>
-  <si>
-    <t>INDO/F SAMBAL E/P335</t>
-  </si>
-  <si>
-    <t>10012917</t>
-  </si>
-  <si>
-    <t>INDO/F SMBAL BGK 335</t>
-  </si>
-  <si>
-    <t>20036241</t>
-  </si>
-  <si>
-    <t>2BLIBIS SAUS CABE335</t>
-  </si>
-  <si>
-    <t>10004367</t>
-  </si>
-  <si>
-    <t>SASA SAMBAL ASLI 135</t>
-  </si>
-  <si>
-    <t>10008480</t>
-  </si>
-  <si>
-    <t>SASA SMBL EX.HOT 135</t>
-  </si>
-  <si>
-    <t>20036344</t>
-  </si>
-  <si>
-    <t>2BLIBIS SAUS CABE135</t>
-  </si>
-  <si>
-    <t>10000212</t>
-  </si>
-  <si>
-    <t>ABC SAMBAL 130ML</t>
-  </si>
-  <si>
-    <t>10036708</t>
-  </si>
-  <si>
-    <t>ABC SBL.EXT PEDAS130</t>
-  </si>
-  <si>
-    <t>10000320</t>
-  </si>
-  <si>
-    <t>ABC SAUCE TOMAT130ML</t>
-  </si>
-  <si>
-    <t>20115632</t>
-  </si>
-  <si>
-    <t>INDOFOOD SMB DHSY135</t>
-  </si>
-  <si>
-    <t>20010272</t>
-  </si>
-  <si>
-    <t>INDOFOOD SMB EXT 135</t>
-  </si>
-  <si>
-    <t>10002989</t>
-  </si>
-  <si>
-    <t>INDOFOOD SBL PDS 135</t>
-  </si>
-  <si>
-    <t>20009269</t>
-  </si>
-  <si>
-    <t>DELMONTE EXT.HOT 135</t>
-  </si>
-  <si>
-    <t>20036194</t>
-  </si>
-  <si>
-    <t>DELMONTE KETCHUP 135</t>
-  </si>
-  <si>
-    <t>20091863</t>
-  </si>
-  <si>
-    <t>MMSUKA HOT LAVA 130</t>
-  </si>
-  <si>
-    <t>20091864</t>
-  </si>
-  <si>
-    <t>MMSUKA HOT LAVA 260</t>
-  </si>
-  <si>
-    <t>20132660</t>
-  </si>
-  <si>
-    <t>2 BELIBIS SAUS 235ML</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20082351</t>
-  </si>
-  <si>
-    <t>DELM.SAOS TOMATO 265</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>10027529</t>
-  </si>
-  <si>
-    <t>DELMONTE EXT.HOT 265</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20139356</t>
-  </si>
-  <si>
-    <t>ABC BMBU KCG 180G</t>
-  </si>
-  <si>
-    <t>20034315</t>
-  </si>
-  <si>
-    <t>ABC SMBAL TERASI 180</t>
-  </si>
-  <si>
-    <t>20043799</t>
-  </si>
-  <si>
-    <t>ABC SMBL EXT PDS 380</t>
-  </si>
-  <si>
-    <t>20104152</t>
-  </si>
-  <si>
-    <t>DELMONTE EXT.HOT 200</t>
-  </si>
-  <si>
-    <t>20009270</t>
-  </si>
-  <si>
-    <t>DELMONTE KTCHUP 24'S</t>
-  </si>
-  <si>
-    <t>20009268</t>
-  </si>
-  <si>
-    <t>DELMONTE SAMBL 24X8</t>
-  </si>
-  <si>
-    <t>20135428</t>
-  </si>
-  <si>
-    <t>KOBE BMB RNDANG 3X20</t>
-  </si>
-  <si>
-    <t>10031438</t>
-  </si>
-  <si>
-    <t>SASA SMB X.HOT 24X8G</t>
-  </si>
-  <si>
-    <t>20036865</t>
-  </si>
-  <si>
-    <t>ABC SMAL TERASI 10'S</t>
-  </si>
-  <si>
-    <t>20054028</t>
-  </si>
-  <si>
-    <t>INDO/F SMBL BLDO 200</t>
-  </si>
-  <si>
-    <t>20048582</t>
-  </si>
-  <si>
-    <t>FINNA SMBL/T ULG 10S</t>
-  </si>
-  <si>
-    <t>20012187</t>
-  </si>
-  <si>
-    <t>INDOFOOD SBL PDS 24S</t>
-  </si>
-  <si>
-    <t>20133690</t>
-  </si>
-  <si>
-    <t>SEDAAP KALDU AYAM250</t>
-  </si>
-  <si>
-    <t>20133691</t>
-  </si>
-  <si>
-    <t>SEDAAP KALDU SAPI250</t>
-  </si>
-  <si>
-    <t>20129197</t>
-  </si>
-  <si>
-    <t>KOBE BMB NS UDK 3X15</t>
-  </si>
-  <si>
-    <t>20135466</t>
-  </si>
-  <si>
-    <t>KOBE BMB NS KNNG3X15</t>
-  </si>
-  <si>
-    <t>20128243</t>
-  </si>
-  <si>
-    <t>M/S GIM BORI PDS 25G</t>
-  </si>
-  <si>
-    <t>20128242</t>
-  </si>
-  <si>
-    <t>M/S GIM BORI ORG 25G</t>
-  </si>
-  <si>
-    <t>20042089</t>
-  </si>
-  <si>
-    <t>KOBE BONCABE ORG 45G</t>
-  </si>
-  <si>
-    <t>20074334</t>
-  </si>
-  <si>
-    <t>KOBE BONCABE L30 40G</t>
-  </si>
-  <si>
-    <t>20047809</t>
-  </si>
-  <si>
-    <t>KOBE BONCABE L15 45G</t>
-  </si>
-  <si>
-    <t>20117663</t>
-  </si>
-  <si>
-    <t>BONCABE LV50 MAX 30G</t>
-  </si>
-  <si>
-    <t>20115355</t>
-  </si>
-  <si>
-    <t>BONCABE NORI LVL 2</t>
-  </si>
-  <si>
-    <t>20056800</t>
-  </si>
-  <si>
-    <t>LADAKU MRC BBK BTL35</t>
-  </si>
-  <si>
-    <t>10036773</t>
-  </si>
-  <si>
-    <t>KUPU2 LADA PTH BBK85</t>
-  </si>
-  <si>
-    <t>10036774</t>
-  </si>
-  <si>
-    <t>KUPU2 LADA HTM BBK83</t>
-  </si>
-  <si>
-    <t>20134371</t>
-  </si>
-  <si>
-    <t>IDM CABE MRH BBK 50G</t>
-  </si>
-  <si>
-    <t>20134372</t>
-  </si>
-  <si>
-    <t>IDM BWG PTIH BBK 60G</t>
-  </si>
-  <si>
-    <t>20134248</t>
-  </si>
-  <si>
-    <t>IDM KETUMBAR BBK 50G</t>
-  </si>
-  <si>
-    <t>20134247</t>
-  </si>
-  <si>
-    <t>IDM LADA PTH BBK 50G</t>
-  </si>
-  <si>
-    <t>20134249</t>
-  </si>
-  <si>
-    <t>IDM KUNYIT BBK 50G</t>
-  </si>
-  <si>
-    <t>10027389</t>
-  </si>
-  <si>
-    <t>INDOFOOD KLD.AYM 100</t>
-  </si>
-  <si>
-    <t>10002915</t>
-  </si>
-  <si>
-    <t>INDOFOOD SOTO AYM45G</t>
-  </si>
-  <si>
-    <t>20021359</t>
-  </si>
-  <si>
-    <t>BAMBOE SOTO MADURA40</t>
-  </si>
-  <si>
-    <t>20036783</t>
-  </si>
-  <si>
-    <t>INDOFD RCK IKN GRG20</t>
+    <t>INDOF TBR BK KEJU25G</t>
+  </si>
+  <si>
+    <t>20013617</t>
+  </si>
+  <si>
+    <t>INDOFD RACIK S.ASM33</t>
+  </si>
+  <si>
+    <t>20023890</t>
+  </si>
+  <si>
+    <t>INDOFD RACIK S.SOP20</t>
+  </si>
+  <si>
+    <t>20077364</t>
+  </si>
+  <si>
+    <t>BAMBOE BMB TOM YUM60</t>
+  </si>
+  <si>
+    <t>20084469</t>
+  </si>
+  <si>
+    <t>ROYCO KALDU AYAM 220</t>
+  </si>
+  <si>
+    <t>20139802</t>
+  </si>
+  <si>
+    <t>ROYCO OPOR AYAM 45G</t>
+  </si>
+  <si>
+    <t>10002766</t>
+  </si>
+  <si>
+    <t>INDOFOOD RAWON 50G</t>
+  </si>
+  <si>
+    <t>20013333</t>
+  </si>
+  <si>
+    <t>BAMBOE BUMBU RAWON54</t>
+  </si>
+  <si>
+    <t>20013616</t>
+  </si>
+  <si>
+    <t>INDOFD RACIK N.GRG20</t>
+  </si>
+  <si>
+    <t>20113574</t>
+  </si>
+  <si>
+    <t>INDF RCK NSGOR SS 3S</t>
   </si>
   <si>
     <t>20133254</t>
@@ -1009,139 +1120,10 @@
     <t>INDOFOOD SEMUR 50G</t>
   </si>
   <si>
-    <t>10002767</t>
-  </si>
-  <si>
-    <t>INDOFOOD GULAI 45G</t>
-  </si>
-  <si>
-    <t>10036780</t>
-  </si>
-  <si>
-    <t>INDOFOOD KARE 45G</t>
-  </si>
-  <si>
-    <t>20013341</t>
-  </si>
-  <si>
-    <t>BAMBOE RENDANG 35G</t>
-  </si>
-  <si>
-    <t>20014281</t>
-  </si>
-  <si>
-    <t>INDOF RACIK AYM.GR26</t>
-  </si>
-  <si>
-    <t>10002765</t>
-  </si>
-  <si>
-    <t>INDOFOOD RENDANG 50G</t>
-  </si>
-  <si>
-    <t>20013345</t>
-  </si>
-  <si>
-    <t>BAMBOE NASI GRG 40G</t>
-  </si>
-  <si>
-    <t>20013617</t>
-  </si>
-  <si>
-    <t>INDOFD RACIK S.ASM33</t>
-  </si>
-  <si>
-    <t>20133255</t>
-  </si>
-  <si>
-    <t>INDOFOOD AYM MNTGA50</t>
-  </si>
-  <si>
-    <t>10002766</t>
-  </si>
-  <si>
-    <t>INDOFOOD RAWON 50G</t>
-  </si>
-  <si>
-    <t>20013616</t>
-  </si>
-  <si>
-    <t>INDOFD RACIK N.GRG20</t>
-  </si>
-  <si>
-    <t>20023890</t>
-  </si>
-  <si>
-    <t>INDOFD RACIK S.SOP20</t>
-  </si>
-  <si>
-    <t>20077364</t>
-  </si>
-  <si>
-    <t>BAMBOE BMB TOM YUM60</t>
-  </si>
-  <si>
-    <t>10002768</t>
-  </si>
-  <si>
-    <t>INDOFOOD OPOR AYM 45</t>
-  </si>
-  <si>
-    <t>20013333</t>
-  </si>
-  <si>
-    <t>BAMBOE BUMBU RAWON54</t>
-  </si>
-  <si>
-    <t>20113574</t>
-  </si>
-  <si>
-    <t>INDF RCK NSGOR SS 3S</t>
-  </si>
-  <si>
-    <t>20139784</t>
-  </si>
-  <si>
-    <t>ROYCO SOTO AYAM 40G</t>
-  </si>
-  <si>
-    <t>20084470</t>
-  </si>
-  <si>
-    <t>ROYCO KALDU SAPI 220</t>
-  </si>
-  <si>
-    <t>RT,(E-0.5B)</t>
-  </si>
-  <si>
-    <t>20139390</t>
-  </si>
-  <si>
-    <t>INDO RACIK BALADO 55</t>
-  </si>
-  <si>
-    <t>20139802</t>
-  </si>
-  <si>
-    <t>ROYCO OPOR AYAM 45G</t>
-  </si>
-  <si>
-    <t>10005820</t>
-  </si>
-  <si>
-    <t>ROYCO KALDU AYAM 94G</t>
-  </si>
-  <si>
-    <t>20084469</t>
-  </si>
-  <si>
-    <t>ROYCO KALDU AYAM 220</t>
-  </si>
-  <si>
-    <t>20139801</t>
-  </si>
-  <si>
-    <t>ROYCO RENDANG 45G</t>
+    <t>20140677</t>
+  </si>
+  <si>
+    <t>IND TABURI GAS PD 25</t>
   </si>
   <si>
     <t>10022534</t>
@@ -1198,6 +1180,12 @@
     <t>BANGO KCP MNS HTM550</t>
   </si>
   <si>
+    <t>20134927</t>
+  </si>
+  <si>
+    <t>SEDAP KCP MNS 270G</t>
+  </si>
+  <si>
     <t>20064956</t>
   </si>
   <si>
@@ -1297,6 +1285,12 @@
     <t>M/R PUDNG STRWBRY110</t>
   </si>
   <si>
+    <t>20140634</t>
+  </si>
+  <si>
+    <t>MOM'S RCP MATCHA 100</t>
+  </si>
+  <si>
     <t>20081237</t>
   </si>
   <si>
@@ -1834,111 +1828,117 @@
     <t>PALMIA ROYAL PCK 200</t>
   </si>
   <si>
+    <t>20132727</t>
+  </si>
+  <si>
+    <t>WNCHEZ KJ/CD OLH 170</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>RT,(E-2.5B)</t>
+  </si>
+  <si>
+    <t>20003902</t>
+  </si>
+  <si>
+    <t>KRAFT CHEDDAR 150G</t>
+  </si>
+  <si>
+    <t>20049621</t>
+  </si>
+  <si>
+    <t>KRAFT KEJU CHDDAR 70</t>
+  </si>
+  <si>
+    <t>20110249</t>
+  </si>
+  <si>
+    <t>KRAFT ALL-IN-1 150G</t>
+  </si>
+  <si>
+    <t>20023912</t>
+  </si>
+  <si>
+    <t>KRAFT QUICK MELT 165</t>
+  </si>
+  <si>
+    <t>20058306</t>
+  </si>
+  <si>
+    <t>PRO CHIZ GOLD 160G</t>
+  </si>
+  <si>
+    <t>20055496</t>
+  </si>
+  <si>
+    <t>PRO CHIZ SPRD 160G</t>
+  </si>
+  <si>
+    <t>20091583</t>
+  </si>
+  <si>
+    <t>PRO CHIZ MZRELA 160G</t>
+  </si>
+  <si>
+    <t>20069701</t>
+  </si>
+  <si>
+    <t>MEG KEJU SRBGN 160G</t>
+  </si>
+  <si>
+    <t>20113339</t>
+  </si>
+  <si>
+    <t>EMINA CHS MOZA 160G</t>
+  </si>
+  <si>
+    <t>20121028</t>
+  </si>
+  <si>
+    <t>EMINA SH.CHEESE 160G</t>
+  </si>
+  <si>
+    <t>20137600</t>
+  </si>
+  <si>
+    <t>FF CHEDDAR 150G</t>
+  </si>
+  <si>
+    <t>20113338</t>
+  </si>
+  <si>
+    <t>EMINA CHSE MILD 160G</t>
+  </si>
+  <si>
+    <t>20140675</t>
+  </si>
+  <si>
+    <t>WINCHEEZ SPREAD 150G</t>
+  </si>
+  <si>
+    <t>20118903</t>
+  </si>
+  <si>
+    <t>PRO CHIZ GLD CHDR 60</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>20015029</t>
   </si>
   <si>
     <t>KRAFT KEJU CHEDDAR30</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>20118903</t>
-  </si>
-  <si>
-    <t>PRO CHIZ GLD CHDR 60</t>
-  </si>
-  <si>
-    <t>20132727</t>
-  </si>
-  <si>
-    <t>WNCHEZ KJ/CD OLH 170</t>
-  </si>
-  <si>
-    <t>RT,(E-2.5B)</t>
-  </si>
-  <si>
-    <t>20003902</t>
-  </si>
-  <si>
-    <t>KRAFT CHEDDAR 150G</t>
-  </si>
-  <si>
-    <t>20049621</t>
-  </si>
-  <si>
-    <t>KRAFT KEJU CHDDAR 70</t>
-  </si>
-  <si>
-    <t>20110249</t>
-  </si>
-  <si>
-    <t>KRAFT ALL-IN-1 150G</t>
-  </si>
-  <si>
-    <t>20023912</t>
-  </si>
-  <si>
-    <t>KRAFT QUICK MELT 165</t>
-  </si>
-  <si>
-    <t>20058306</t>
-  </si>
-  <si>
-    <t>PRO CHIZ GOLD 160G</t>
-  </si>
-  <si>
-    <t>20055496</t>
-  </si>
-  <si>
-    <t>PRO CHIZ SPRD 160G</t>
-  </si>
-  <si>
-    <t>20091583</t>
-  </si>
-  <si>
-    <t>PRO CHIZ MZRELA 160G</t>
-  </si>
-  <si>
-    <t>20069701</t>
-  </si>
-  <si>
-    <t>MEG KEJU SRBGN 160G</t>
-  </si>
-  <si>
-    <t>20113339</t>
-  </si>
-  <si>
-    <t>EMINA CHS MOZA 160G</t>
-  </si>
-  <si>
-    <t>20121028</t>
-  </si>
-  <si>
-    <t>EMINA SH.CHEESE 160G</t>
-  </si>
-  <si>
-    <t>20137600</t>
-  </si>
-  <si>
-    <t>FF CHEDDAR 150G</t>
-  </si>
-  <si>
-    <t>20113338</t>
-  </si>
-  <si>
-    <t>EMINA CHSE MILD 160G</t>
-  </si>
-  <si>
     <t>10000465</t>
   </si>
   <si>
     <t>KRAFT SINGLE HC 150G</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>10002565</t>
   </si>
   <si>
@@ -1975,69 +1975,69 @@
     <t>EMINA CHS SLC MOZA5S</t>
   </si>
   <si>
+    <t>20099766</t>
+  </si>
+  <si>
+    <t>MAESTRO TI SLD DR100</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>20099768</t>
+  </si>
+  <si>
+    <t>MAESTRO WJN SNGRA100</t>
+  </si>
+  <si>
+    <t>20049493</t>
+  </si>
+  <si>
+    <t>MAESTRO LGHT MAYO100</t>
+  </si>
+  <si>
+    <t>20055358</t>
+  </si>
+  <si>
+    <t>MAYUMI MAYO PDS 100G</t>
+  </si>
+  <si>
+    <t>20040891</t>
+  </si>
+  <si>
+    <t>MAYUMI MAYONNAISE100</t>
+  </si>
+  <si>
+    <t>20126527</t>
+  </si>
+  <si>
+    <t>KEWPIE MAYO ORGNL 70</t>
+  </si>
+  <si>
+    <t>20131033</t>
+  </si>
+  <si>
+    <t>KEWPIE WIJEN SNGR 50</t>
+  </si>
+  <si>
+    <t>20101391</t>
+  </si>
+  <si>
+    <t>KEWPIE SD WJN SG 200</t>
+  </si>
+  <si>
+    <t>20106544</t>
+  </si>
+  <si>
+    <t>KEWPIE MAYO ORGN 150</t>
+  </si>
+  <si>
     <t>20135049</t>
   </si>
   <si>
     <t>EMINA CHS SLC CD 10S</t>
   </si>
   <si>
-    <t>20099766</t>
-  </si>
-  <si>
-    <t>MAESTRO TI SLD DR100</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>20099768</t>
-  </si>
-  <si>
-    <t>MAESTRO WJN SNGRA100</t>
-  </si>
-  <si>
-    <t>20049493</t>
-  </si>
-  <si>
-    <t>MAESTRO LGHT MAYO100</t>
-  </si>
-  <si>
-    <t>20055358</t>
-  </si>
-  <si>
-    <t>MAYUMI MAYO PDS 100G</t>
-  </si>
-  <si>
-    <t>20040891</t>
-  </si>
-  <si>
-    <t>MAYUMI MAYONNAISE100</t>
-  </si>
-  <si>
-    <t>20126527</t>
-  </si>
-  <si>
-    <t>KEWPIE MAYO ORGNL 70</t>
-  </si>
-  <si>
-    <t>20131033</t>
-  </si>
-  <si>
-    <t>KEWPIE WIJEN SNGR 50</t>
-  </si>
-  <si>
-    <t>20101391</t>
-  </si>
-  <si>
-    <t>KEWPIE SD WJN SG 200</t>
-  </si>
-  <si>
-    <t>20106544</t>
-  </si>
-  <si>
-    <t>KEWPIE MAYO ORGN 150</t>
-  </si>
-  <si>
     <t>10000181</t>
   </si>
   <si>
@@ -2135,6 +2135,12 @@
   </si>
   <si>
     <t>IKAN DORANG PCH 950</t>
+  </si>
+  <si>
+    <t>20140913</t>
+  </si>
+  <si>
+    <t>SOVIA MNYK GR PCH1.8</t>
   </si>
   <si>
     <t>10005838</t>
@@ -2569,7 +2575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F337"/>
+  <dimension ref="A1:F338"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2736,7 +2742,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2750,21 +2756,21 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -2773,18 +2779,18 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -2793,10 +2799,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2813,18 +2819,18 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -2833,18 +2839,18 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -2853,18 +2859,18 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -2873,10 +2879,10 @@
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2896,7 +2902,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2910,13 +2916,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2933,10 +2939,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2953,10 +2959,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2973,30 +2979,30 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3013,10 +3019,10 @@
         <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3033,10 +3039,10 @@
         <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3053,10 +3059,10 @@
         <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,10 +3079,10 @@
         <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3093,10 +3099,10 @@
         <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3113,10 +3119,10 @@
         <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3130,13 +3136,13 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3153,7 +3159,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>5</v>
@@ -3173,10 +3179,10 @@
         <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3193,10 +3199,10 @@
         <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3213,10 +3219,10 @@
         <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3233,10 +3239,10 @@
         <v>17</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3253,10 +3259,10 @@
         <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3270,13 +3276,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3293,10 +3299,10 @@
         <v>21</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3313,18 +3319,18 @@
         <v>21</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -3333,10 +3339,10 @@
         <v>21</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3353,10 +3359,10 @@
         <v>21</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3373,18 +3379,18 @@
         <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -3393,10 +3399,10 @@
         <v>21</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3416,7 +3422,7 @@
         <v>24</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3433,18 +3439,18 @@
         <v>21</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -3453,27 +3459,27 @@
         <v>21</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -3481,259 +3487,259 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>18</v>
@@ -3741,79 +3747,79 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>18</v>
@@ -3821,39 +3827,39 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>18</v>
@@ -3861,39 +3867,39 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>5</v>
@@ -3901,59 +3907,59 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>18</v>
@@ -3961,19 +3967,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>18</v>
@@ -3981,79 +3987,79 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>18</v>
@@ -4061,79 +4067,79 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>18</v>
@@ -4141,19 +4147,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>18</v>
@@ -4161,119 +4167,119 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>18</v>
@@ -4281,102 +4287,102 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>191</v>
+        <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4390,13 +4396,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4410,13 +4416,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4430,13 +4436,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4450,13 +4456,13 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4470,13 +4476,13 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4490,13 +4496,13 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4510,10 +4516,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
@@ -4530,10 +4536,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>5</v>
@@ -4550,10 +4556,10 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
@@ -4570,13 +4576,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4590,13 +4596,13 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4610,10 +4616,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
@@ -4630,13 +4636,13 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4650,13 +4656,13 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4670,13 +4676,13 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4690,13 +4696,13 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4710,13 +4716,13 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4730,13 +4736,13 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4750,13 +4756,13 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4770,173 +4776,173 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>197</v>
+        <v>8</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>256</v>
+        <v>17</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4950,13 +4956,13 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4970,13 +4976,13 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4990,13 +4996,13 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -5010,13 +5016,13 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -5030,13 +5036,13 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -5050,13 +5056,13 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -5070,10 +5076,10 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>18</v>
@@ -5090,13 +5096,13 @@
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -5110,13 +5116,13 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -5130,13 +5136,13 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -5150,10 +5156,10 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>18</v>
@@ -5170,10 +5176,10 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>18</v>
@@ -5190,10 +5196,10 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>18</v>
@@ -5210,13 +5216,13 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -5230,10 +5236,10 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>18</v>
@@ -5250,10 +5256,10 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>18</v>
@@ -5270,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>18</v>
@@ -5290,13 +5296,13 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -5310,13 +5316,13 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -5330,13 +5336,13 @@
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -5350,13 +5356,13 @@
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -5370,13 +5376,13 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -5390,13 +5396,13 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -5410,13 +5416,13 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -5430,13 +5436,13 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -5450,13 +5456,13 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -5470,13 +5476,13 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -5490,513 +5496,513 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>53</v>
+        <v>316</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>256</v>
+        <v>4</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>366</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -6010,13 +6016,13 @@
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -6030,13 +6036,13 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -6050,13 +6056,13 @@
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>366</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -6070,13 +6076,13 @@
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>366</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -6090,10 +6096,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>18</v>
@@ -6110,13 +6116,13 @@
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -6130,13 +6136,13 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -6150,13 +6156,13 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -6170,13 +6176,13 @@
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -6190,13 +6196,13 @@
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -6210,13 +6216,13 @@
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6230,13 +6236,13 @@
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -6250,13 +6256,13 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>366</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -6270,13 +6276,13 @@
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6290,13 +6296,13 @@
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6310,13 +6316,13 @@
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6330,13 +6336,13 @@
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6350,13 +6356,13 @@
         <v>3</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -6370,13 +6376,13 @@
         <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -6390,10 +6396,10 @@
         <v>3</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>5</v>
@@ -6410,30 +6416,30 @@
         <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>259</v>
+        <v>409</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>366</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="E193" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>5</v>
@@ -6441,19 +6447,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>5</v>
@@ -6470,10 +6476,10 @@
         <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>5</v>
@@ -6490,10 +6496,10 @@
         <v>3</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>5</v>
@@ -6510,13 +6516,13 @@
         <v>3</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -6530,13 +6536,13 @@
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -6550,10 +6556,10 @@
         <v>3</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>18</v>
@@ -6570,10 +6576,10 @@
         <v>3</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>18</v>
@@ -6590,13 +6596,13 @@
         <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -6610,33 +6616,33 @@
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="E203" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6650,13 +6656,13 @@
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6670,10 +6676,10 @@
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>5</v>
@@ -6690,13 +6696,13 @@
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6710,10 +6716,10 @@
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>18</v>
@@ -6730,33 +6736,33 @@
         <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>18</v>
+        <v>443</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>445</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6770,13 +6776,13 @@
         <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6790,13 +6796,13 @@
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6810,33 +6816,33 @@
         <v>3</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>18</v>
+        <v>453</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="E213" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -6850,13 +6856,13 @@
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>455</v>
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6870,13 +6876,13 @@
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -6890,13 +6896,13 @@
         <v>3</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6910,13 +6916,13 @@
         <v>3</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6930,13 +6936,13 @@
         <v>3</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6950,13 +6956,13 @@
         <v>3</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6970,13 +6976,13 @@
         <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6990,13 +6996,13 @@
         <v>3</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -7010,13 +7016,13 @@
         <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -7030,13 +7036,13 @@
         <v>3</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -7050,33 +7056,33 @@
         <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>34</v>
+        <v>479</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D225" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -7090,13 +7096,13 @@
         <v>3</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -7110,13 +7116,13 @@
         <v>3</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>481</v>
+        <v>88</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -7130,13 +7136,13 @@
         <v>3</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -7150,13 +7156,13 @@
         <v>3</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>86</v>
+        <v>479</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -7170,13 +7176,13 @@
         <v>3</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>481</v>
+        <v>88</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -7190,13 +7196,13 @@
         <v>3</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -7210,13 +7216,13 @@
         <v>3</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -7230,10 +7236,10 @@
         <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>5</v>
@@ -7250,7 +7256,7 @@
         <v>3</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>14</v>
@@ -7270,7 +7276,7 @@
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>14</v>
@@ -7290,10 +7296,10 @@
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>5</v>
@@ -7310,7 +7316,7 @@
         <v>3</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>17</v>
@@ -7330,7 +7336,7 @@
         <v>3</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>17</v>
@@ -7350,10 +7356,10 @@
         <v>3</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>5</v>
@@ -7370,7 +7376,7 @@
         <v>3</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>21</v>
@@ -7390,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>21</v>
@@ -7410,10 +7416,10 @@
         <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>5</v>
@@ -7430,10 +7436,10 @@
         <v>3</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>5</v>
@@ -7450,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>24</v>
@@ -7470,33 +7476,33 @@
         <v>3</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="E246" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -7510,10 +7516,10 @@
         <v>3</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>5</v>
@@ -7530,10 +7536,10 @@
         <v>3</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>5</v>
@@ -7550,13 +7556,13 @@
         <v>3</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -7570,13 +7576,13 @@
         <v>3</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -7590,30 +7596,30 @@
         <v>3</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D252" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>537</v>
-      </c>
       <c r="E252" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>5</v>
@@ -7630,10 +7636,10 @@
         <v>3</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>5</v>
@@ -7650,13 +7656,13 @@
         <v>3</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -7670,13 +7676,13 @@
         <v>3</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -7690,13 +7696,13 @@
         <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -7710,13 +7716,13 @@
         <v>3</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -7730,30 +7736,30 @@
         <v>3</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="E259" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>5</v>
@@ -7770,10 +7776,10 @@
         <v>3</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>5</v>
@@ -7790,13 +7796,13 @@
         <v>3</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -7810,13 +7816,13 @@
         <v>3</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -7830,13 +7836,13 @@
         <v>3</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -7850,33 +7856,33 @@
         <v>3</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>86</v>
+        <v>563</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>565</v>
+        <v>31</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -7890,13 +7896,13 @@
         <v>3</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -7910,13 +7916,13 @@
         <v>3</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -7930,13 +7936,13 @@
         <v>3</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -7950,33 +7956,33 @@
         <v>3</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="E270" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -7990,13 +7996,13 @@
         <v>3</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -8010,13 +8016,13 @@
         <v>3</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -8030,33 +8036,33 @@
         <v>3</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>86</v>
+        <v>583</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>585</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -8070,13 +8076,13 @@
         <v>3</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -8090,30 +8096,30 @@
         <v>3</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D277" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>592</v>
-      </c>
       <c r="E277" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>18</v>
@@ -8130,10 +8136,10 @@
         <v>3</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>18</v>
@@ -8150,10 +8156,10 @@
         <v>3</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>18</v>
@@ -8170,13 +8176,13 @@
         <v>3</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -8190,13 +8196,13 @@
         <v>3</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -8210,13 +8216,13 @@
         <v>3</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -8230,13 +8236,13 @@
         <v>3</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -8250,30 +8256,30 @@
         <v>3</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>34</v>
+        <v>608</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B285" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>609</v>
-      </c>
       <c r="E285" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>18</v>
@@ -8281,19 +8287,19 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>18</v>
@@ -8301,22 +8307,22 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>614</v>
+        <v>18</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -8330,10 +8336,10 @@
         <v>3</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>18</v>
@@ -8350,10 +8356,10 @@
         <v>3</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>18</v>
@@ -8370,10 +8376,10 @@
         <v>3</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>18</v>
@@ -8390,7 +8396,7 @@
         <v>3</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>24</v>
@@ -8410,10 +8416,10 @@
         <v>3</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>18</v>
@@ -8430,10 +8436,10 @@
         <v>3</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>18</v>
@@ -8450,13 +8456,13 @@
         <v>3</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -8470,10 +8476,10 @@
         <v>3</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>18</v>
@@ -8490,13 +8496,13 @@
         <v>3</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -8510,13 +8516,13 @@
         <v>3</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -8530,10 +8536,10 @@
         <v>3</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>18</v>
@@ -8541,39 +8547,39 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D299" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B299" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>609</v>
-      </c>
       <c r="E299" s="1" t="s">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>5</v>
@@ -8590,10 +8596,10 @@
         <v>3</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>18</v>
@@ -8610,10 +8616,10 @@
         <v>3</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>18</v>
@@ -8630,10 +8636,10 @@
         <v>3</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>18</v>
@@ -8650,10 +8656,10 @@
         <v>3</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>5</v>
@@ -8670,10 +8676,10 @@
         <v>3</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>18</v>
@@ -8690,10 +8696,10 @@
         <v>3</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>18</v>
@@ -8710,33 +8716,33 @@
         <v>3</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D308" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -8750,13 +8756,13 @@
         <v>3</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -8770,13 +8776,13 @@
         <v>3</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -8790,7 +8796,7 @@
         <v>3</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>17</v>
@@ -8810,7 +8816,7 @@
         <v>3</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>21</v>
@@ -8830,10 +8836,10 @@
         <v>3</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>18</v>
@@ -8850,10 +8856,10 @@
         <v>3</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>18</v>
@@ -8870,10 +8876,10 @@
         <v>3</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>18</v>
@@ -8890,13 +8896,13 @@
         <v>3</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -8956,7 +8962,7 @@
         <v>14</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -8976,7 +8982,7 @@
         <v>17</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -9036,7 +9042,7 @@
         <v>11</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -9056,7 +9062,7 @@
         <v>14</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -9076,7 +9082,7 @@
         <v>17</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -9116,7 +9122,7 @@
         <v>4</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -9136,7 +9142,7 @@
         <v>8</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -9156,7 +9162,7 @@
         <v>11</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -9176,7 +9182,7 @@
         <v>14</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -9196,7 +9202,7 @@
         <v>17</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -9210,33 +9216,33 @@
         <v>3</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="C333" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D333" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C333" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="E333" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -9250,13 +9256,13 @@
         <v>3</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -9270,13 +9276,13 @@
         <v>3</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -9290,10 +9296,10 @@
         <v>3</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>18</v>
@@ -9301,22 +9307,42 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="C337" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D337" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C337" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>719</v>
-      </c>
       <c r="E337" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E338" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F337" s="1" t="s">
-        <v>86</v>
+      <c r="F338" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/BFD05D.xlsx
+++ b/BFD05D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="722">
   <si>
     <t/>
   </si>
@@ -346,88 +346,136 @@
     <t>PRONAS NS GRG SP 110</t>
   </si>
   <si>
+    <t>20059859</t>
+  </si>
+  <si>
+    <t>KOBE BMB N/GRG PDS20</t>
+  </si>
+  <si>
+    <t>20098663</t>
+  </si>
+  <si>
+    <t>TOTOLE KLD JMUR 40G</t>
+  </si>
+  <si>
+    <t>20103449</t>
+  </si>
+  <si>
+    <t>SAJIKU NSI GRG SPL20</t>
+  </si>
+  <si>
+    <t>20134777</t>
+  </si>
+  <si>
+    <t>SASA KARI JPG ORI 40</t>
+  </si>
+  <si>
+    <t>20134778</t>
+  </si>
+  <si>
+    <t>SASA KARI JPG PDS 40</t>
+  </si>
+  <si>
+    <t>10007775</t>
+  </si>
+  <si>
+    <t>A/SAJIKU NASI G.AY20</t>
+  </si>
+  <si>
+    <t>10035898</t>
+  </si>
+  <si>
+    <t>A/MASAKO AYAM 100GR</t>
+  </si>
+  <si>
+    <t>10035899</t>
+  </si>
+  <si>
+    <t>A/MASAKO SAPI 100GR</t>
+  </si>
+  <si>
+    <t>20104719</t>
+  </si>
+  <si>
+    <t>TOTOLE KLD JMUR 80G</t>
+  </si>
+  <si>
+    <t>20136397</t>
+  </si>
+  <si>
+    <t>KB BMB AYM LNGKS 80G</t>
+  </si>
+  <si>
+    <t>20136577</t>
+  </si>
+  <si>
+    <t>TUDUNG BMB PRLDK 50G</t>
+  </si>
+  <si>
+    <t>20138072</t>
+  </si>
+  <si>
+    <t>RASA/M OPOR AYAM 40G</t>
+  </si>
+  <si>
+    <t>10013821</t>
+  </si>
+  <si>
+    <t>A/SAJIKU NASI G.PD20</t>
+  </si>
+  <si>
+    <t>20038549</t>
+  </si>
+  <si>
+    <t>A/MASAKO AYAM 250GR</t>
+  </si>
+  <si>
+    <t>20057290</t>
+  </si>
+  <si>
+    <t>SASA BU AYAM KNG 25G</t>
+  </si>
+  <si>
+    <t>20135316</t>
+  </si>
+  <si>
+    <t>LARISST BMB JMR 40G</t>
+  </si>
+  <si>
+    <t>20136743</t>
+  </si>
+  <si>
+    <t>TDUNG BMB NP.RDNG 27</t>
+  </si>
+  <si>
+    <t>20137258</t>
+  </si>
+  <si>
+    <t>RASA/M GULAI AYAM40G</t>
+  </si>
+  <si>
+    <t>20138371</t>
+  </si>
+  <si>
+    <t>MAGGI MAGIC LZT 80G</t>
+  </si>
+  <si>
     <t>10013823</t>
   </si>
   <si>
     <t>A/SAJIKU BB.AYM GR24</t>
   </si>
   <si>
-    <t>10035898</t>
-  </si>
-  <si>
-    <t>A/MASAKO AYAM 100GR</t>
-  </si>
-  <si>
-    <t>20057290</t>
-  </si>
-  <si>
-    <t>SASA BU AYAM KNG 25G</t>
-  </si>
-  <si>
-    <t>20098663</t>
-  </si>
-  <si>
-    <t>TOTOLE KLD JMUR 40G</t>
-  </si>
-  <si>
-    <t>20134777</t>
-  </si>
-  <si>
-    <t>SASA KARI JPG ORI 40</t>
-  </si>
-  <si>
-    <t>20134778</t>
-  </si>
-  <si>
-    <t>SASA KARI JPG PDS 40</t>
-  </si>
-  <si>
-    <t>20136577</t>
-  </si>
-  <si>
-    <t>TUDUNG BMB PRLDK 50G</t>
-  </si>
-  <si>
-    <t>10035899</t>
-  </si>
-  <si>
-    <t>A/MASAKO SAPI 100GR</t>
-  </si>
-  <si>
     <t>20025563</t>
   </si>
   <si>
     <t>SASA BMB LUMUR AYM26</t>
   </si>
   <si>
-    <t>20059859</t>
-  </si>
-  <si>
-    <t>KOBE BMB N/GRG PDS20</t>
-  </si>
-  <si>
-    <t>20103449</t>
-  </si>
-  <si>
-    <t>SAJIKU NSI GRG SPL20</t>
-  </si>
-  <si>
-    <t>20104719</t>
-  </si>
-  <si>
-    <t>TOTOLE KLD JMUR 80G</t>
-  </si>
-  <si>
-    <t>20136743</t>
-  </si>
-  <si>
-    <t>TDUNG BMB NP.RDNG 27</t>
-  </si>
-  <si>
-    <t>20138072</t>
-  </si>
-  <si>
-    <t>RASA/M OPOR AYAM 40G</t>
+    <t>20038548</t>
+  </si>
+  <si>
+    <t>MASAKO SAPI 250GR</t>
   </si>
   <si>
     <t>20134507</t>
@@ -436,54 +484,6 @@
     <t>TUDUNG BMB NS UDUK27</t>
   </si>
   <si>
-    <t>20135316</t>
-  </si>
-  <si>
-    <t>LARISST BMB JMR 40G</t>
-  </si>
-  <si>
-    <t>20136397</t>
-  </si>
-  <si>
-    <t>KB BMB AYM LNGKS 80G</t>
-  </si>
-  <si>
-    <t>20137258</t>
-  </si>
-  <si>
-    <t>RASA/M GULAI AYAM40G</t>
-  </si>
-  <si>
-    <t>20138371</t>
-  </si>
-  <si>
-    <t>MAGGI MAGIC LZT 80G</t>
-  </si>
-  <si>
-    <t>10007775</t>
-  </si>
-  <si>
-    <t>A/SAJIKU NASI G.AY20</t>
-  </si>
-  <si>
-    <t>10013821</t>
-  </si>
-  <si>
-    <t>A/SAJIKU NASI G.PD20</t>
-  </si>
-  <si>
-    <t>20038548</t>
-  </si>
-  <si>
-    <t>MASAKO SAPI 250GR</t>
-  </si>
-  <si>
-    <t>20038549</t>
-  </si>
-  <si>
-    <t>A/MASAKO AYAM 250GR</t>
-  </si>
-  <si>
     <t>20138843</t>
   </si>
   <si>
@@ -1918,19 +1918,13 @@
     <t>WINCHEEZ SPREAD 150G</t>
   </si>
   <si>
-    <t>20118903</t>
-  </si>
-  <si>
-    <t>PRO CHIZ GLD CHDR 60</t>
+    <t>20015029</t>
+  </si>
+  <si>
+    <t>KRAFT KEJU CHEDDAR30</t>
   </si>
   <si>
     <t>29</t>
-  </si>
-  <si>
-    <t>20015029</t>
-  </si>
-  <si>
-    <t>KRAFT KEJU CHEDDAR30</t>
   </si>
   <si>
     <t>10000465</t>
@@ -2575,7 +2569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F338"/>
+  <dimension ref="A1:F337"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -3542,7 +3536,7 @@
         <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3562,7 +3556,7 @@
         <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3582,7 +3576,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3602,7 +3596,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3639,10 +3633,10 @@
         <v>24</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3659,7 +3653,7 @@
         <v>24</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>18</v>
@@ -3722,7 +3716,7 @@
         <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3762,7 +3756,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3779,7 +3773,7 @@
         <v>24</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>18</v>
@@ -3799,7 +3793,7 @@
         <v>24</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>18</v>
@@ -3822,7 +3816,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3942,7 +3936,7 @@
         <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -8539,7 +8533,7 @@
         <v>637</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>18</v>
@@ -8559,10 +8553,10 @@
         <v>637</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -8579,10 +8573,10 @@
         <v>637</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -8599,7 +8593,7 @@
         <v>637</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>18</v>
@@ -8619,7 +8613,7 @@
         <v>637</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>18</v>
@@ -8639,10 +8633,10 @@
         <v>637</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -8659,10 +8653,10 @@
         <v>637</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -8679,7 +8673,7 @@
         <v>637</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>18</v>
@@ -8696,30 +8690,30 @@
         <v>3</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D307" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>656</v>
-      </c>
       <c r="E307" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>31</v>
@@ -8736,10 +8730,10 @@
         <v>3</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>31</v>
@@ -8756,13 +8750,13 @@
         <v>3</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -8776,10 +8770,10 @@
         <v>3</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>18</v>
@@ -8796,10 +8790,10 @@
         <v>3</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>18</v>
@@ -8816,10 +8810,10 @@
         <v>3</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>18</v>
@@ -8836,10 +8830,10 @@
         <v>3</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>18</v>
@@ -8856,10 +8850,10 @@
         <v>3</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>18</v>
@@ -8876,13 +8870,13 @@
         <v>3</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -8896,30 +8890,30 @@
         <v>3</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D317" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>677</v>
-      </c>
       <c r="E317" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>18</v>
@@ -8936,13 +8930,13 @@
         <v>3</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -8956,13 +8950,13 @@
         <v>3</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>88</v>
+        <v>453</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -8976,30 +8970,30 @@
         <v>3</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>453</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D321" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>686</v>
-      </c>
       <c r="E321" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>18</v>
@@ -9016,13 +9010,13 @@
         <v>3</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -9036,10 +9030,10 @@
         <v>3</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>88</v>
@@ -9056,13 +9050,13 @@
         <v>3</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -9076,13 +9070,13 @@
         <v>3</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -9096,30 +9090,30 @@
         <v>3</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>699</v>
-      </c>
       <c r="E327" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>88</v>
@@ -9136,10 +9130,10 @@
         <v>3</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>88</v>
@@ -9156,10 +9150,10 @@
         <v>3</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>88</v>
@@ -9176,10 +9170,10 @@
         <v>3</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>88</v>
@@ -9196,10 +9190,10 @@
         <v>3</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>88</v>
@@ -9216,10 +9210,10 @@
         <v>3</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>88</v>
@@ -9227,19 +9221,19 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D333" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B333" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>712</v>
-      </c>
       <c r="E333" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>88</v>
@@ -9256,10 +9250,10 @@
         <v>3</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>88</v>
@@ -9276,13 +9270,13 @@
         <v>3</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -9296,10 +9290,10 @@
         <v>3</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>18</v>
@@ -9307,41 +9301,21 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D337" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B337" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>721</v>
-      </c>
       <c r="E337" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F338" s="1" t="s">
         <v>88</v>
       </c>
     </row>

--- a/BFD05D.xlsx
+++ b/BFD05D.xlsx
@@ -31,69 +31,63 @@
     <t>RT,(E-2B)</t>
   </si>
   <si>
-    <t>20035489</t>
-  </si>
-  <si>
-    <t>LA FONTE FTTUCINE225</t>
+    <t>10004331</t>
+  </si>
+  <si>
+    <t>LA FONTE SPGHT 450G</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20117918</t>
+  </si>
+  <si>
+    <t>LA FONTE LASAGNA 230</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10027952</t>
+  </si>
+  <si>
+    <t>L/F SPAG.SAUS AYM117</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>10027768</t>
+  </si>
+  <si>
+    <t>L/F SPAG SAUS BLG117</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10016520</t>
+  </si>
+  <si>
+    <t>PAZTO MAKARN KEJU 63</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20039011</t>
+  </si>
+  <si>
+    <t>MMSUKA S.KRM AYM 55G</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>10004331</t>
-  </si>
-  <si>
-    <t>LA FONTE SPGHT 450G</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>20117918</t>
-  </si>
-  <si>
-    <t>LA FONTE LASAGNA 230</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>10027952</t>
-  </si>
-  <si>
-    <t>L/F SPAG.SAUS AYM117</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>RT,(E-1B)</t>
-  </si>
-  <si>
-    <t>10027768</t>
-  </si>
-  <si>
-    <t>L/F SPAG SAUS BLG117</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>10016520</t>
-  </si>
-  <si>
-    <t>PAZTO MAKARN KEJU 63</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>20039011</t>
-  </si>
-  <si>
-    <t>MMSUKA S.KRM AYM 55G</t>
-  </si>
-  <si>
     <t>20137017</t>
   </si>
   <si>
@@ -658,12 +652,6 @@
     <t>2BLIBIS SAUS CABE335</t>
   </si>
   <si>
-    <t>10004367</t>
-  </si>
-  <si>
-    <t>SASA SAMBAL ASLI 135</t>
-  </si>
-  <si>
     <t>20036344</t>
   </si>
   <si>
@@ -1453,6 +1441,12 @@
     <t>RT,(E-7.5B)</t>
   </si>
   <si>
+    <t>20069632</t>
+  </si>
+  <si>
+    <t>BOLA/D AGAR MERAH 7G</t>
+  </si>
+  <si>
     <t>20069634</t>
   </si>
   <si>
@@ -1471,108 +1465,108 @@
     <t>SW.GLB AGAR COKL. 7G</t>
   </si>
   <si>
+    <t>10036817</t>
+  </si>
+  <si>
+    <t>SW.GLB AGAR PUTIH 7G</t>
+  </si>
+  <si>
     <t>10036819</t>
   </si>
   <si>
     <t>SW.GLB AGAR MERAH 7G</t>
   </si>
   <si>
-    <t>20069632</t>
-  </si>
-  <si>
-    <t>BOLA/D AGAR MERAH 7G</t>
-  </si>
-  <si>
-    <t>10036817</t>
-  </si>
-  <si>
-    <t>SW.GLB AGAR PUTIH 7G</t>
-  </si>
-  <si>
     <t>10036821</t>
   </si>
   <si>
     <t>SW.GLB AGAR HIJAU 7G</t>
   </si>
   <si>
+    <t>10016716</t>
+  </si>
+  <si>
+    <t>NUTRIJELL PLAIN 15G</t>
+  </si>
+  <si>
+    <t>10016793</t>
+  </si>
+  <si>
+    <t>NUTRIJEL PWD.MELON15</t>
+  </si>
+  <si>
+    <t>20031946</t>
+  </si>
+  <si>
+    <t>NUTRIJELL CINCAU 15G</t>
+  </si>
+  <si>
     <t>20046858</t>
   </si>
   <si>
     <t>NUTRIJEL PWD GRAPE15</t>
   </si>
   <si>
-    <t>10016716</t>
-  </si>
-  <si>
-    <t>NUTRIJELL PLAIN 15G</t>
-  </si>
-  <si>
-    <t>10016793</t>
-  </si>
-  <si>
-    <t>NUTRIJEL PWD.MELON15</t>
-  </si>
-  <si>
-    <t>20031946</t>
-  </si>
-  <si>
-    <t>NUTRIJELL CINCAU 15G</t>
-  </si>
-  <si>
     <t>10016718</t>
   </si>
   <si>
     <t>NUTRIJEL PWD.LECI 15</t>
   </si>
   <si>
+    <t>10016719</t>
+  </si>
+  <si>
+    <t>NUTRIJEL PWD.STRW.15</t>
+  </si>
+  <si>
+    <t>10025449</t>
+  </si>
+  <si>
+    <t>NUTRIJEL POWD.CKT 25</t>
+  </si>
+  <si>
+    <t>20076797</t>
+  </si>
+  <si>
+    <t>NUTRIJELL KLP MD 15G</t>
+  </si>
+  <si>
+    <t>10023618</t>
+  </si>
+  <si>
+    <t>NUTRIJEL PWD.MANGO15</t>
+  </si>
+  <si>
+    <t>20026083</t>
+  </si>
+  <si>
+    <t>AR AGAR PWDR COK 22G</t>
+  </si>
+  <si>
+    <t>20040434</t>
+  </si>
+  <si>
+    <t>MY VLA INST.COKLAT63</t>
+  </si>
+  <si>
     <t>20040435</t>
   </si>
   <si>
     <t>MY VLA INST.VANILA60</t>
   </si>
   <si>
-    <t>20076797</t>
-  </si>
-  <si>
-    <t>NUTRIJELL KLP MD 15G</t>
-  </si>
-  <si>
-    <t>10016719</t>
-  </si>
-  <si>
-    <t>NUTRIJEL PWD.STRW.15</t>
-  </si>
-  <si>
-    <t>10025449</t>
-  </si>
-  <si>
-    <t>NUTRIJEL POWD.CKT 25</t>
-  </si>
-  <si>
-    <t>20040434</t>
-  </si>
-  <si>
-    <t>MY VLA INST.COKLAT63</t>
-  </si>
-  <si>
-    <t>10023618</t>
-  </si>
-  <si>
-    <t>NUTRIJEL PWD.MANGO15</t>
-  </si>
-  <si>
-    <t>20026083</t>
-  </si>
-  <si>
-    <t>AR AGAR PWDR COK 22G</t>
-  </si>
-  <si>
     <t>20134767</t>
   </si>
   <si>
     <t>NUTRIJELL DRK.CHO 24</t>
   </si>
   <si>
+    <t>20141199</t>
+  </si>
+  <si>
+    <t>NUTRIJELL KOPI 20G</t>
+  </si>
+  <si>
     <t>20026090</t>
   </si>
   <si>
@@ -1967,6 +1961,12 @@
   </si>
   <si>
     <t>EMINA CHS SLC MOZA5S</t>
+  </si>
+  <si>
+    <t>20141197</t>
+  </si>
+  <si>
+    <t>PRO CHIZ Q.MELT 160G</t>
   </si>
   <si>
     <t>20099766</t>
@@ -2676,15 +2676,15 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -2693,10 +2693,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2716,7 +2716,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2730,13 +2730,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2750,13 +2750,13 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2770,33 +2770,33 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2810,13 +2810,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2830,13 +2830,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2850,33 +2850,33 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2893,10 +2893,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2910,13 +2910,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2930,13 +2930,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2950,21 +2950,21 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -2973,10 +2973,10 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2990,13 +2990,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3010,13 +3010,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3030,13 +3030,13 @@
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3050,13 +3050,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3070,13 +3070,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3090,13 +3090,13 @@
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3113,10 +3113,10 @@
         <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3130,10 +3130,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>5</v>
@@ -3150,13 +3150,13 @@
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3170,13 +3170,13 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3190,13 +3190,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3210,13 +3210,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3230,13 +3230,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3250,13 +3250,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3270,13 +3270,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3290,13 +3290,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3310,33 +3310,33 @@
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3350,13 +3350,13 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3370,33 +3370,33 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3410,70 +3410,70 @@
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -3490,13 +3490,13 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3510,13 +3510,13 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3530,13 +3530,13 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3550,13 +3550,13 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3570,13 +3570,13 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3590,13 +3590,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3610,13 +3610,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3630,13 +3630,13 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3650,13 +3650,13 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3670,13 +3670,13 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3690,13 +3690,13 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3710,13 +3710,13 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3730,13 +3730,13 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3750,13 +3750,13 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3770,13 +3770,13 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3790,13 +3790,13 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3810,13 +3810,13 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3830,13 +3830,13 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3850,13 +3850,13 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3870,13 +3870,13 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3890,13 +3890,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3910,13 +3910,13 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3930,13 +3930,13 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3950,13 +3950,13 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3970,13 +3970,13 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3990,13 +3990,13 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4010,13 +4010,13 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4030,13 +4030,13 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4050,13 +4050,13 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4070,13 +4070,13 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4090,13 +4090,13 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4110,13 +4110,13 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4130,13 +4130,13 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4150,13 +4150,13 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4170,13 +4170,13 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4190,30 +4190,30 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -4221,62 +4221,62 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4290,13 +4290,13 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4310,13 +4310,13 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4330,13 +4330,13 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4350,13 +4350,13 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4370,10 +4370,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>5</v>
@@ -4390,10 +4390,10 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>5</v>
@@ -4410,10 +4410,10 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>5</v>
@@ -4430,10 +4430,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>5</v>
@@ -4450,13 +4450,13 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4470,13 +4470,13 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4490,13 +4490,13 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4510,10 +4510,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
@@ -4530,10 +4530,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>5</v>
@@ -4550,10 +4550,10 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
@@ -4570,10 +4570,10 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
@@ -4590,13 +4590,13 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4610,13 +4610,13 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4630,13 +4630,13 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4650,13 +4650,13 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4670,13 +4670,13 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4690,13 +4690,13 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4710,13 +4710,13 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4730,93 +4730,93 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4830,13 +4830,13 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4850,13 +4850,13 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4870,13 +4870,13 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4890,13 +4890,13 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4910,13 +4910,13 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4930,13 +4930,13 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4950,13 +4950,13 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4970,13 +4970,13 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4990,13 +4990,13 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -5010,13 +5010,13 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -5030,13 +5030,13 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -5050,13 +5050,13 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -5070,13 +5070,13 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -5090,13 +5090,13 @@
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -5110,13 +5110,13 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -5130,13 +5130,13 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -5150,13 +5150,13 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -5170,13 +5170,13 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -5190,13 +5190,13 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -5210,13 +5210,13 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -5230,13 +5230,13 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -5250,13 +5250,13 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -5270,13 +5270,13 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -5290,13 +5290,13 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -5310,13 +5310,13 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -5330,13 +5330,13 @@
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -5350,13 +5350,13 @@
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -5370,13 +5370,13 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -5390,13 +5390,13 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -5410,13 +5410,13 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -5430,13 +5430,13 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -5450,53 +5450,53 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>5</v>
+        <v>312</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>316</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -5510,13 +5510,13 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5530,13 +5530,13 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5550,13 +5550,13 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -5570,13 +5570,13 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5590,13 +5590,13 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5610,13 +5610,13 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5630,13 +5630,13 @@
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5650,13 +5650,13 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5670,13 +5670,13 @@
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>31</v>
+        <v>312</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5690,13 +5690,13 @@
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5710,13 +5710,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5730,13 +5730,13 @@
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5750,13 +5750,13 @@
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5770,13 +5770,13 @@
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5790,13 +5790,13 @@
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5810,13 +5810,13 @@
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5830,13 +5830,13 @@
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5850,13 +5850,13 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>31</v>
+        <v>312</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5870,13 +5870,13 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5890,13 +5890,13 @@
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>316</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5910,13 +5910,13 @@
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5930,13 +5930,13 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5950,13 +5950,13 @@
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5970,13 +5970,13 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5990,13 +5990,13 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -6010,13 +6010,13 @@
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -6030,13 +6030,13 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -6050,13 +6050,13 @@
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -6070,13 +6070,13 @@
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -6090,13 +6090,13 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -6110,13 +6110,13 @@
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -6130,13 +6130,13 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>18</v>
+        <v>312</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -6150,13 +6150,13 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>31</v>
+        <v>312</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -6170,13 +6170,13 @@
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -6190,13 +6190,13 @@
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -6210,13 +6210,13 @@
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>316</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6230,13 +6230,13 @@
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -6250,13 +6250,13 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -6270,13 +6270,13 @@
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6290,13 +6290,13 @@
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>18</v>
+        <v>312</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6310,13 +6310,13 @@
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6330,13 +6330,13 @@
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6350,10 +6350,10 @@
         <v>3</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>5</v>
@@ -6370,30 +6370,30 @@
         <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>247</v>
+        <v>405</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>316</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="E191" s="1" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>5</v>
@@ -6401,19 +6401,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>5</v>
@@ -6430,10 +6430,10 @@
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>5</v>
@@ -6450,10 +6450,10 @@
         <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>5</v>
@@ -6470,13 +6470,13 @@
         <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -6490,13 +6490,13 @@
         <v>3</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6510,13 +6510,13 @@
         <v>3</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -6530,13 +6530,13 @@
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -6550,13 +6550,13 @@
         <v>3</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -6570,53 +6570,53 @@
         <v>3</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="E201" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -6630,13 +6630,13 @@
         <v>3</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6650,13 +6650,13 @@
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6670,13 +6670,13 @@
         <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6690,53 +6690,53 @@
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>443</v>
+        <v>86</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6750,13 +6750,13 @@
         <v>3</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6770,53 +6770,53 @@
         <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>88</v>
+        <v>449</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="E211" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>453</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6830,13 +6830,13 @@
         <v>3</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>453</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -6850,13 +6850,13 @@
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -6870,13 +6870,13 @@
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -6890,13 +6890,13 @@
         <v>3</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6910,13 +6910,13 @@
         <v>3</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6930,13 +6930,13 @@
         <v>3</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6950,13 +6950,13 @@
         <v>3</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6970,13 +6970,13 @@
         <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6990,13 +6990,13 @@
         <v>3</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -7010,53 +7010,53 @@
         <v>3</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>31</v>
+        <v>475</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="E223" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F223" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -7070,13 +7070,13 @@
         <v>3</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -7090,13 +7090,13 @@
         <v>3</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>479</v>
+        <v>86</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -7110,13 +7110,13 @@
         <v>3</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -7130,13 +7130,13 @@
         <v>3</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -7150,13 +7150,13 @@
         <v>3</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>479</v>
+        <v>86</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -7170,13 +7170,13 @@
         <v>3</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -7190,13 +7190,13 @@
         <v>3</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -7210,10 +7210,10 @@
         <v>3</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>5</v>
@@ -7230,10 +7230,10 @@
         <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>5</v>
@@ -7250,10 +7250,10 @@
         <v>3</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>5</v>
@@ -7270,10 +7270,10 @@
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>5</v>
@@ -7290,10 +7290,10 @@
         <v>3</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>5</v>
@@ -7310,10 +7310,10 @@
         <v>3</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>5</v>
@@ -7330,10 +7330,10 @@
         <v>3</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>5</v>
@@ -7350,10 +7350,10 @@
         <v>3</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>5</v>
@@ -7370,10 +7370,10 @@
         <v>3</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>5</v>
@@ -7390,10 +7390,10 @@
         <v>3</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>5</v>
@@ -7410,10 +7410,10 @@
         <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>5</v>
@@ -7430,10 +7430,10 @@
         <v>3</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>5</v>
@@ -7450,33 +7450,33 @@
         <v>3</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="E245" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -7490,7 +7490,7 @@
         <v>3</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>8</v>
@@ -7510,7 +7510,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>11</v>
@@ -7530,13 +7530,13 @@
         <v>3</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -7550,13 +7550,13 @@
         <v>3</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -7570,30 +7570,30 @@
         <v>3</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="E251" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>5</v>
@@ -7610,7 +7610,7 @@
         <v>3</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>8</v>
@@ -7630,13 +7630,13 @@
         <v>3</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -7650,13 +7650,13 @@
         <v>3</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -7670,13 +7670,13 @@
         <v>3</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -7690,13 +7690,13 @@
         <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -7710,30 +7710,30 @@
         <v>3</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>550</v>
-      </c>
       <c r="E258" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>5</v>
@@ -7750,7 +7750,7 @@
         <v>3</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>8</v>
@@ -7770,13 +7770,13 @@
         <v>3</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -7790,13 +7790,13 @@
         <v>3</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -7810,13 +7810,13 @@
         <v>3</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -7830,33 +7830,33 @@
         <v>3</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>88</v>
+        <v>561</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>563</v>
+        <v>29</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -7870,13 +7870,13 @@
         <v>3</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -7890,13 +7890,13 @@
         <v>3</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -7910,13 +7910,13 @@
         <v>3</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -7930,33 +7930,33 @@
         <v>3</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>574</v>
-      </c>
       <c r="E269" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -7970,13 +7970,13 @@
         <v>3</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -7990,13 +7990,13 @@
         <v>3</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -8010,33 +8010,33 @@
         <v>3</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>88</v>
+        <v>581</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>583</v>
+        <v>86</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -8050,13 +8050,13 @@
         <v>3</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -8070,33 +8070,33 @@
         <v>3</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>590</v>
-      </c>
       <c r="E276" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -8110,13 +8110,13 @@
         <v>3</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -8130,13 +8130,13 @@
         <v>3</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -8150,13 +8150,13 @@
         <v>3</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -8170,13 +8170,13 @@
         <v>3</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -8190,13 +8190,13 @@
         <v>3</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -8210,13 +8210,13 @@
         <v>3</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -8230,33 +8230,33 @@
         <v>3</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>18</v>
+        <v>606</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B284" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="E284" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>608</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -8270,13 +8270,13 @@
         <v>3</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -8290,13 +8290,13 @@
         <v>3</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -8310,13 +8310,13 @@
         <v>3</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -8330,13 +8330,13 @@
         <v>3</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -8350,13 +8350,13 @@
         <v>3</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -8370,13 +8370,13 @@
         <v>3</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -8390,13 +8390,13 @@
         <v>3</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -8410,13 +8410,13 @@
         <v>3</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -8430,13 +8430,13 @@
         <v>3</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -8450,13 +8450,13 @@
         <v>3</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -8470,13 +8470,13 @@
         <v>3</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -8490,13 +8490,13 @@
         <v>3</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -8510,33 +8510,33 @@
         <v>3</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D298" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>637</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -8550,13 +8550,13 @@
         <v>3</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -8570,13 +8570,13 @@
         <v>3</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -8590,13 +8590,13 @@
         <v>3</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -8610,13 +8610,13 @@
         <v>3</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -8630,13 +8630,13 @@
         <v>3</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -8650,13 +8650,13 @@
         <v>3</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -8670,13 +8670,13 @@
         <v>3</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -8696,7 +8696,7 @@
         <v>4</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -8713,10 +8713,10 @@
         <v>654</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -8733,10 +8733,10 @@
         <v>654</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -8753,10 +8753,10 @@
         <v>654</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -8773,10 +8773,10 @@
         <v>654</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -8793,10 +8793,10 @@
         <v>654</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -8813,10 +8813,10 @@
         <v>654</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -8833,10 +8833,10 @@
         <v>654</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -8853,10 +8853,10 @@
         <v>654</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -8873,10 +8873,10 @@
         <v>654</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -8896,7 +8896,7 @@
         <v>4</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -8913,10 +8913,10 @@
         <v>675</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -8933,10 +8933,10 @@
         <v>675</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -8953,10 +8953,10 @@
         <v>675</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -8976,7 +8976,7 @@
         <v>4</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -8993,10 +8993,10 @@
         <v>684</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -9013,10 +9013,10 @@
         <v>684</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -9033,10 +9033,10 @@
         <v>684</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -9053,10 +9053,10 @@
         <v>684</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -9073,10 +9073,10 @@
         <v>684</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -9096,7 +9096,7 @@
         <v>4</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -9113,10 +9113,10 @@
         <v>697</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -9133,10 +9133,10 @@
         <v>697</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -9153,10 +9153,10 @@
         <v>697</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -9173,10 +9173,10 @@
         <v>697</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -9193,10 +9193,10 @@
         <v>697</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -9216,7 +9216,7 @@
         <v>4</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -9233,10 +9233,10 @@
         <v>710</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -9253,10 +9253,10 @@
         <v>710</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -9273,10 +9273,10 @@
         <v>710</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -9296,7 +9296,7 @@
         <v>4</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -9313,10 +9313,10 @@
         <v>719</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
